--- a/Microsoft 365/Current Channel/outlookreportitemcontrols.xlsx
+++ b/Microsoft 365/Current Channel/outlookreportitemcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcoard\OneDrive - Microsoft\Documents\RibbonX Upload\CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RibbonXThing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785D2A1A-0FBD-41F9-83AD-BA9F9324732F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A492E6BD-0265-415B-8E92-7D4AC2CD87CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="23325"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="outlookreportitemcontrols" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12263" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12278" uniqueCount="961">
   <si>
     <t>Policy ID</t>
   </si>
@@ -2497,9 +2497,15 @@
     <t>Insert3DModelFromFile</t>
   </si>
   <si>
+    <t>Insert3DModelFromFileConsumer</t>
+  </si>
+  <si>
     <t>Insert3DModelFromOnline</t>
   </si>
   <si>
+    <t>Insert3DModelFromOnlineConsumer</t>
+  </si>
+  <si>
     <t>Reset3DModelSplitButton</t>
   </si>
   <si>
@@ -2882,6 +2888,9 @@
   </si>
   <si>
     <t>OutlookFeedbackUIF</t>
+  </si>
+  <si>
+    <t>OfficeFeedbackBackstage</t>
   </si>
   <si>
     <t>ContextMenuMailMoreActions</t>
@@ -2904,21 +2913,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -2926,7 +2935,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2934,7 +2943,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2942,35 +2951,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2978,7 +2987,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2986,14 +2995,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3001,14 +3010,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3016,7 +3025,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3024,14 +3033,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3438,8 +3447,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2204" totalsRowShown="0">
-  <autoFilter ref="A1:I2204"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I2207" totalsRowShown="0">
+  <autoFilter ref="A1:I2207"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Control Name"/>
     <tableColumn id="2" name="Control Type"/>
@@ -3466,39 +3475,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3550,7 +3559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3661,13 +3670,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -3676,6 +3678,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3740,11 +3749,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3752,7 +3781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -3760,15 +3789,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3797,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -47240,7 +47269,7 @@
         <v>822</v>
       </c>
       <c r="H1990">
-        <v>27815</v>
+        <v>34830</v>
       </c>
     </row>
     <row r="1991" spans="1:8" x14ac:dyDescent="0.25">
@@ -47248,7 +47277,7 @@
         <v>826</v>
       </c>
       <c r="B1991" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C1991" t="s">
         <v>818</v>
@@ -47259,8 +47288,11 @@
       <c r="E1991" t="s">
         <v>820</v>
       </c>
+      <c r="F1991" t="s">
+        <v>822</v>
+      </c>
       <c r="H1991">
-        <v>27845</v>
+        <v>27815</v>
       </c>
     </row>
     <row r="1992" spans="1:8" x14ac:dyDescent="0.25">
@@ -47280,10 +47312,10 @@
         <v>820</v>
       </c>
       <c r="F1992" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H1992">
-        <v>27846</v>
+        <v>34831</v>
       </c>
     </row>
     <row r="1993" spans="1:8" x14ac:dyDescent="0.25">
@@ -47291,7 +47323,7 @@
         <v>828</v>
       </c>
       <c r="B1993" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C1993" t="s">
         <v>818</v>
@@ -47302,11 +47334,8 @@
       <c r="E1993" t="s">
         <v>820</v>
       </c>
-      <c r="F1993" t="s">
-        <v>826</v>
-      </c>
       <c r="H1993">
-        <v>27847</v>
+        <v>27845</v>
       </c>
     </row>
     <row r="1994" spans="1:8" x14ac:dyDescent="0.25">
@@ -47314,7 +47343,7 @@
         <v>829</v>
       </c>
       <c r="B1994" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C1994" t="s">
         <v>818</v>
@@ -47322,8 +47351,14 @@
       <c r="D1994" t="s">
         <v>819</v>
       </c>
+      <c r="E1994" t="s">
+        <v>820</v>
+      </c>
+      <c r="F1994" t="s">
+        <v>828</v>
+      </c>
       <c r="H1994">
-        <v>27843</v>
+        <v>27846</v>
       </c>
     </row>
     <row r="1995" spans="1:8" x14ac:dyDescent="0.25">
@@ -47331,7 +47366,7 @@
         <v>830</v>
       </c>
       <c r="B1995" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C1995" t="s">
         <v>818</v>
@@ -47340,10 +47375,13 @@
         <v>819</v>
       </c>
       <c r="E1995" t="s">
-        <v>829</v>
+        <v>820</v>
+      </c>
+      <c r="F1995" t="s">
+        <v>828</v>
       </c>
       <c r="H1995">
-        <v>27891</v>
+        <v>27847</v>
       </c>
     </row>
     <row r="1996" spans="1:8" x14ac:dyDescent="0.25">
@@ -47351,7 +47389,7 @@
         <v>831</v>
       </c>
       <c r="B1996" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C1996" t="s">
         <v>818</v>
@@ -47359,19 +47397,16 @@
       <c r="D1996" t="s">
         <v>819</v>
       </c>
-      <c r="E1996" t="s">
-        <v>829</v>
-      </c>
       <c r="H1996">
-        <v>27848</v>
+        <v>27843</v>
       </c>
     </row>
     <row r="1997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1997" t="s">
-        <v>326</v>
+        <v>832</v>
       </c>
       <c r="B1997" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1997" t="s">
         <v>818</v>
@@ -47379,16 +47414,19 @@
       <c r="D1997" t="s">
         <v>819</v>
       </c>
+      <c r="E1997" t="s">
+        <v>831</v>
+      </c>
       <c r="H1997">
-        <v>33176</v>
+        <v>27891</v>
       </c>
     </row>
     <row r="1998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1998" t="s">
-        <v>327</v>
+        <v>833</v>
       </c>
       <c r="B1998" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C1998" t="s">
         <v>818</v>
@@ -47397,15 +47435,15 @@
         <v>819</v>
       </c>
       <c r="E1998" t="s">
-        <v>326</v>
+        <v>831</v>
       </c>
       <c r="H1998">
-        <v>33177</v>
+        <v>27848</v>
       </c>
     </row>
     <row r="1999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1999" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B1999" t="s">
         <v>29</v>
@@ -47417,15 +47455,15 @@
         <v>819</v>
       </c>
       <c r="H1999">
-        <v>11581</v>
+        <v>33176</v>
       </c>
     </row>
     <row r="2000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2000" t="s">
-        <v>578</v>
+        <v>327</v>
       </c>
       <c r="B2000" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2000" t="s">
         <v>818</v>
@@ -47434,18 +47472,18 @@
         <v>819</v>
       </c>
       <c r="E2000" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H2000">
-        <v>13142</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="2001" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2001" t="s">
-        <v>509</v>
+        <v>328</v>
       </c>
       <c r="B2001" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2001" t="s">
         <v>818</v>
@@ -47453,19 +47491,13 @@
       <c r="D2001" t="s">
         <v>819</v>
       </c>
-      <c r="E2001" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2001" t="s">
-        <v>578</v>
-      </c>
       <c r="H2001">
-        <v>21603</v>
+        <v>11581</v>
       </c>
     </row>
     <row r="2002" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2002" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="B2002" t="s">
         <v>22</v>
@@ -47480,15 +47512,15 @@
         <v>328</v>
       </c>
       <c r="H2002">
-        <v>18323</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="2003" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2003" t="s">
-        <v>810</v>
+        <v>509</v>
       </c>
       <c r="B2003" t="s">
-        <v>677</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="s">
         <v>818</v>
@@ -47500,18 +47532,18 @@
         <v>328</v>
       </c>
       <c r="F2003" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="H2003">
-        <v>24601</v>
+        <v>21603</v>
       </c>
     </row>
     <row r="2004" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2004" t="s">
-        <v>811</v>
+        <v>329</v>
       </c>
       <c r="B2004" t="s">
-        <v>677</v>
+        <v>22</v>
       </c>
       <c r="C2004" t="s">
         <v>818</v>
@@ -47522,19 +47554,16 @@
       <c r="E2004" t="s">
         <v>328</v>
       </c>
-      <c r="F2004" t="s">
-        <v>329</v>
-      </c>
       <c r="H2004">
-        <v>24602</v>
+        <v>18323</v>
       </c>
     </row>
     <row r="2005" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2005" t="s">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="B2005" t="s">
-        <v>9</v>
+        <v>677</v>
       </c>
       <c r="C2005" t="s">
         <v>818</v>
@@ -47549,15 +47578,15 @@
         <v>329</v>
       </c>
       <c r="H2005">
-        <v>21604</v>
+        <v>24601</v>
       </c>
     </row>
     <row r="2006" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2006" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B2006" t="s">
-        <v>9</v>
+        <v>677</v>
       </c>
       <c r="C2006" t="s">
         <v>818</v>
@@ -47572,15 +47601,15 @@
         <v>329</v>
       </c>
       <c r="H2006">
-        <v>24603</v>
+        <v>24602</v>
       </c>
     </row>
     <row r="2007" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2007" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B2007" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="s">
         <v>818</v>
@@ -47591,13 +47620,16 @@
       <c r="E2007" t="s">
         <v>328</v>
       </c>
+      <c r="F2007" t="s">
+        <v>329</v>
+      </c>
       <c r="H2007">
-        <v>17239</v>
+        <v>21604</v>
       </c>
     </row>
     <row r="2008" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2008" t="s">
-        <v>332</v>
+        <v>812</v>
       </c>
       <c r="B2008" t="s">
         <v>9</v>
@@ -47612,18 +47644,18 @@
         <v>328</v>
       </c>
       <c r="F2008" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H2008">
-        <v>170</v>
+        <v>24603</v>
       </c>
     </row>
     <row r="2009" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2009" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B2009" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C2009" t="s">
         <v>818</v>
@@ -47634,16 +47666,13 @@
       <c r="E2009" t="s">
         <v>328</v>
       </c>
-      <c r="F2009" t="s">
-        <v>331</v>
-      </c>
       <c r="H2009">
-        <v>166</v>
+        <v>17239</v>
       </c>
     </row>
     <row r="2010" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2010" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2010" t="s">
         <v>9</v>
@@ -47661,15 +47690,15 @@
         <v>331</v>
       </c>
       <c r="H2010">
-        <v>3451</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2011" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2011" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B2011" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="s">
         <v>818</v>
@@ -47680,13 +47709,16 @@
       <c r="E2011" t="s">
         <v>328</v>
       </c>
+      <c r="F2011" t="s">
+        <v>331</v>
+      </c>
       <c r="H2011">
-        <v>17240</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2012" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2012" t="s">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c r="B2012" t="s">
         <v>9</v>
@@ -47701,18 +47733,18 @@
         <v>328</v>
       </c>
       <c r="F2012" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H2012">
-        <v>171</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2013" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2013" t="s">
-        <v>119</v>
+        <v>335</v>
       </c>
       <c r="B2013" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="C2013" t="s">
         <v>818</v>
@@ -47723,16 +47755,13 @@
       <c r="E2013" t="s">
         <v>328</v>
       </c>
-      <c r="F2013" t="s">
-        <v>335</v>
-      </c>
       <c r="H2013">
-        <v>167</v>
+        <v>17240</v>
       </c>
     </row>
     <row r="2014" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2014" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2014" t="s">
         <v>9</v>
@@ -47750,15 +47779,15 @@
         <v>335</v>
       </c>
       <c r="H2014">
-        <v>3452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2015" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2015" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B2015" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="s">
         <v>818</v>
@@ -47769,16 +47798,19 @@
       <c r="E2015" t="s">
         <v>328</v>
       </c>
+      <c r="F2015" t="s">
+        <v>335</v>
+      </c>
       <c r="H2015">
-        <v>13244</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2016" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2016" t="s">
-        <v>336</v>
+        <v>120</v>
       </c>
       <c r="B2016" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="s">
         <v>818</v>
@@ -47789,16 +47821,19 @@
       <c r="E2016" t="s">
         <v>328</v>
       </c>
+      <c r="F2016" t="s">
+        <v>335</v>
+      </c>
       <c r="H2016">
-        <v>11920</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2017" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2017" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="B2017" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2017" t="s">
         <v>818</v>
@@ -47809,19 +47844,16 @@
       <c r="E2017" t="s">
         <v>328</v>
       </c>
-      <c r="F2017" t="s">
-        <v>336</v>
-      </c>
       <c r="H2017">
-        <v>12784</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="2018" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2018" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2018" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C2018" t="s">
         <v>818</v>
@@ -47832,16 +47864,13 @@
       <c r="E2018" t="s">
         <v>328</v>
       </c>
-      <c r="F2018" t="s">
-        <v>336</v>
-      </c>
       <c r="H2018">
-        <v>12788</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="2019" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2019" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B2019" t="s">
         <v>9</v>
@@ -47859,12 +47888,12 @@
         <v>336</v>
       </c>
       <c r="H2019">
-        <v>12785</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="2020" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2020" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B2020" t="s">
         <v>9</v>
@@ -47882,12 +47911,12 @@
         <v>336</v>
       </c>
       <c r="H2020">
-        <v>12786</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="2021" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2021" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2021" t="s">
         <v>9</v>
@@ -47905,12 +47934,12 @@
         <v>336</v>
       </c>
       <c r="H2021">
-        <v>12789</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="2022" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2022" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B2022" t="s">
         <v>9</v>
@@ -47928,12 +47957,12 @@
         <v>336</v>
       </c>
       <c r="H2022">
-        <v>12787</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="2023" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2023" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2023" t="s">
         <v>9</v>
@@ -47951,12 +47980,12 @@
         <v>336</v>
       </c>
       <c r="H2023">
-        <v>12790</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="2024" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2024" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B2024" t="s">
         <v>9</v>
@@ -47974,15 +48003,15 @@
         <v>336</v>
       </c>
       <c r="H2024">
-        <v>12791</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="2025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2025" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2025" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="s">
         <v>818</v>
@@ -47997,15 +48026,15 @@
         <v>336</v>
       </c>
       <c r="H2025">
-        <v>12783</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="2026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2026" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2026" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="s">
         <v>818</v>
@@ -48020,12 +48049,12 @@
         <v>336</v>
       </c>
       <c r="H2026">
-        <v>14469</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="2027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2027" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2027" t="s">
         <v>24</v>
@@ -48043,15 +48072,15 @@
         <v>336</v>
       </c>
       <c r="H2027">
-        <v>12782</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="2028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2028" t="s">
-        <v>814</v>
+        <v>346</v>
       </c>
       <c r="B2028" t="s">
-        <v>677</v>
+        <v>24</v>
       </c>
       <c r="C2028" t="s">
         <v>818</v>
@@ -48066,15 +48095,15 @@
         <v>336</v>
       </c>
       <c r="H2028">
-        <v>24267</v>
+        <v>14469</v>
       </c>
     </row>
     <row r="2029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2029" t="s">
-        <v>815</v>
+        <v>347</v>
       </c>
       <c r="B2029" t="s">
-        <v>677</v>
+        <v>24</v>
       </c>
       <c r="C2029" t="s">
         <v>818</v>
@@ -48089,15 +48118,15 @@
         <v>336</v>
       </c>
       <c r="H2029">
-        <v>300</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="2030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2030" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B2030" t="s">
-        <v>9</v>
+        <v>677</v>
       </c>
       <c r="C2030" t="s">
         <v>818</v>
@@ -48112,15 +48141,15 @@
         <v>336</v>
       </c>
       <c r="H2030">
-        <v>217</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="2031" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2031" t="s">
-        <v>348</v>
+        <v>815</v>
       </c>
       <c r="B2031" t="s">
-        <v>33</v>
+        <v>677</v>
       </c>
       <c r="C2031" t="s">
         <v>818</v>
@@ -48131,13 +48160,16 @@
       <c r="E2031" t="s">
         <v>328</v>
       </c>
+      <c r="F2031" t="s">
+        <v>336</v>
+      </c>
       <c r="H2031">
-        <v>14409</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2032" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2032" t="s">
-        <v>349</v>
+        <v>816</v>
       </c>
       <c r="B2032" t="s">
         <v>9</v>
@@ -48152,18 +48184,18 @@
         <v>328</v>
       </c>
       <c r="F2032" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="H2032">
-        <v>164</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2033" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2033" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2033" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C2033" t="s">
         <v>818</v>
@@ -48174,16 +48206,13 @@
       <c r="E2033" t="s">
         <v>328</v>
       </c>
-      <c r="F2033" t="s">
-        <v>348</v>
-      </c>
       <c r="H2033">
-        <v>338</v>
+        <v>14409</v>
       </c>
     </row>
     <row r="2034" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2034" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B2034" t="s">
         <v>9</v>
@@ -48201,15 +48230,15 @@
         <v>348</v>
       </c>
       <c r="H2034">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2035" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2035" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B2035" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2035" t="s">
         <v>818</v>
@@ -48220,13 +48249,16 @@
       <c r="E2035" t="s">
         <v>328</v>
       </c>
+      <c r="F2035" t="s">
+        <v>348</v>
+      </c>
       <c r="H2035">
-        <v>16073</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2036" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2036" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B2036" t="s">
         <v>9</v>
@@ -48241,18 +48273,18 @@
         <v>328</v>
       </c>
       <c r="F2036" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H2036">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2037" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2037" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="B2037" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C2037" t="s">
         <v>818</v>
@@ -48263,16 +48295,13 @@
       <c r="E2037" t="s">
         <v>328</v>
       </c>
-      <c r="F2037" t="s">
-        <v>354</v>
-      </c>
       <c r="H2037">
-        <v>170</v>
+        <v>16073</v>
       </c>
     </row>
     <row r="2038" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2038" t="s">
-        <v>119</v>
+        <v>333</v>
       </c>
       <c r="B2038" t="s">
         <v>9</v>
@@ -48290,12 +48319,12 @@
         <v>354</v>
       </c>
       <c r="H2038">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2039" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2039" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
       <c r="B2039" t="s">
         <v>9</v>
@@ -48313,12 +48342,12 @@
         <v>354</v>
       </c>
       <c r="H2039">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2040" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2040" t="s">
-        <v>334</v>
+        <v>119</v>
       </c>
       <c r="B2040" t="s">
         <v>9</v>
@@ -48336,12 +48365,12 @@
         <v>354</v>
       </c>
       <c r="H2040">
-        <v>3451</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2041" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2041" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2041" t="s">
         <v>9</v>
@@ -48359,12 +48388,12 @@
         <v>354</v>
       </c>
       <c r="H2041">
-        <v>3452</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2042" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2042" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B2042" t="s">
         <v>9</v>
@@ -48382,12 +48411,12 @@
         <v>354</v>
       </c>
       <c r="H2042">
-        <v>164</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="2043" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2043" t="s">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="B2043" t="s">
         <v>9</v>
@@ -48405,12 +48434,12 @@
         <v>354</v>
       </c>
       <c r="H2043">
-        <v>165</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="2044" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2044" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2044" t="s">
         <v>9</v>
@@ -48428,15 +48457,15 @@
         <v>354</v>
       </c>
       <c r="H2044">
-        <v>338</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2045" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2045" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="B2045" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2045" t="s">
         <v>818</v>
@@ -48451,12 +48480,12 @@
         <v>354</v>
       </c>
       <c r="H2045">
-        <v>11920</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2046" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2046" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B2046" t="s">
         <v>9</v>
@@ -48473,19 +48502,16 @@
       <c r="F2046" t="s">
         <v>354</v>
       </c>
-      <c r="G2046" t="s">
-        <v>336</v>
-      </c>
       <c r="H2046">
-        <v>12784</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2047" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2047" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2047" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C2047" t="s">
         <v>818</v>
@@ -48499,16 +48525,13 @@
       <c r="F2047" t="s">
         <v>354</v>
       </c>
-      <c r="G2047" t="s">
-        <v>336</v>
-      </c>
       <c r="H2047">
-        <v>12788</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="2048" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2048" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B2048" t="s">
         <v>9</v>
@@ -48529,12 +48552,12 @@
         <v>336</v>
       </c>
       <c r="H2048">
-        <v>12785</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="2049" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2049" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B2049" t="s">
         <v>9</v>
@@ -48555,12 +48578,12 @@
         <v>336</v>
       </c>
       <c r="H2049">
-        <v>12786</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="2050" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2050" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2050" t="s">
         <v>9</v>
@@ -48581,12 +48604,12 @@
         <v>336</v>
       </c>
       <c r="H2050">
-        <v>12789</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="2051" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2051" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B2051" t="s">
         <v>9</v>
@@ -48607,12 +48630,12 @@
         <v>336</v>
       </c>
       <c r="H2051">
-        <v>12787</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="2052" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2052" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2052" t="s">
         <v>9</v>
@@ -48633,12 +48656,12 @@
         <v>336</v>
       </c>
       <c r="H2052">
-        <v>12790</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="2053" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2053" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B2053" t="s">
         <v>9</v>
@@ -48659,15 +48682,15 @@
         <v>336</v>
       </c>
       <c r="H2053">
-        <v>12791</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="2054" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2054" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B2054" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2054" t="s">
         <v>818</v>
@@ -48685,15 +48708,15 @@
         <v>336</v>
       </c>
       <c r="H2054">
-        <v>12783</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="2055" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2055" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B2055" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2055" t="s">
         <v>818</v>
@@ -48711,12 +48734,12 @@
         <v>336</v>
       </c>
       <c r="H2055">
-        <v>14469</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="2056" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2056" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B2056" t="s">
         <v>24</v>
@@ -48737,15 +48760,15 @@
         <v>336</v>
       </c>
       <c r="H2056">
-        <v>12782</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="2057" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2057" t="s">
-        <v>814</v>
+        <v>346</v>
       </c>
       <c r="B2057" t="s">
-        <v>677</v>
+        <v>24</v>
       </c>
       <c r="C2057" t="s">
         <v>818</v>
@@ -48763,15 +48786,15 @@
         <v>336</v>
       </c>
       <c r="H2057">
-        <v>24267</v>
+        <v>14469</v>
       </c>
     </row>
     <row r="2058" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2058" t="s">
-        <v>815</v>
+        <v>347</v>
       </c>
       <c r="B2058" t="s">
-        <v>677</v>
+        <v>24</v>
       </c>
       <c r="C2058" t="s">
         <v>818</v>
@@ -48789,15 +48812,15 @@
         <v>336</v>
       </c>
       <c r="H2058">
-        <v>300</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="2059" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2059" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B2059" t="s">
-        <v>9</v>
+        <v>677</v>
       </c>
       <c r="C2059" t="s">
         <v>818</v>
@@ -48815,15 +48838,15 @@
         <v>336</v>
       </c>
       <c r="H2059">
-        <v>217</v>
+        <v>24267</v>
       </c>
     </row>
     <row r="2060" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2060" t="s">
-        <v>102</v>
+        <v>815</v>
       </c>
       <c r="B2060" t="s">
-        <v>24</v>
+        <v>677</v>
       </c>
       <c r="C2060" t="s">
         <v>818</v>
@@ -48837,16 +48860,19 @@
       <c r="F2060" t="s">
         <v>354</v>
       </c>
+      <c r="G2060" t="s">
+        <v>336</v>
+      </c>
       <c r="H2060">
-        <v>13244</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2061" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2061" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="B2061" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2061" t="s">
         <v>818</v>
@@ -48854,13 +48880,22 @@
       <c r="D2061" t="s">
         <v>819</v>
       </c>
+      <c r="E2061" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2061" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2061" t="s">
+        <v>336</v>
+      </c>
       <c r="H2061">
-        <v>27844</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2062" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2062" t="s">
-        <v>833</v>
+        <v>102</v>
       </c>
       <c r="B2062" t="s">
         <v>24</v>
@@ -48872,18 +48907,21 @@
         <v>819</v>
       </c>
       <c r="E2062" t="s">
-        <v>832</v>
+        <v>328</v>
+      </c>
+      <c r="F2062" t="s">
+        <v>354</v>
       </c>
       <c r="H2062">
-        <v>27938</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="2063" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2063" t="s">
-        <v>356</v>
+        <v>834</v>
       </c>
       <c r="B2063" t="s">
-        <v>357</v>
+        <v>29</v>
       </c>
       <c r="C2063" t="s">
         <v>818</v>
@@ -48891,19 +48929,16 @@
       <c r="D2063" t="s">
         <v>819</v>
       </c>
-      <c r="E2063" t="s">
-        <v>832</v>
-      </c>
       <c r="H2063">
-        <v>13915</v>
+        <v>27844</v>
       </c>
     </row>
     <row r="2064" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2064" t="s">
-        <v>358</v>
+        <v>835</v>
       </c>
       <c r="B2064" t="s">
-        <v>357</v>
+        <v>24</v>
       </c>
       <c r="C2064" t="s">
         <v>818</v>
@@ -48912,18 +48947,18 @@
         <v>819</v>
       </c>
       <c r="E2064" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2064">
-        <v>13916</v>
+        <v>27938</v>
       </c>
     </row>
     <row r="2065" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2065" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B2065" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="C2065" t="s">
         <v>818</v>
@@ -48932,35 +48967,50 @@
         <v>819</v>
       </c>
       <c r="E2065" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H2065">
-        <v>21605</v>
+        <v>13915</v>
       </c>
     </row>
     <row r="2066" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2066" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>818</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2066" t="s">
         <v>834</v>
       </c>
-      <c r="B2066" t="s">
-        <v>223</v>
-      </c>
       <c r="H2066">
-        <v>34010</v>
+        <v>13916</v>
       </c>
     </row>
     <row r="2067" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2067" t="s">
-        <v>835</v>
+        <v>359</v>
       </c>
       <c r="B2067" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C2067" t="s">
+        <v>818</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>819</v>
+      </c>
+      <c r="E2067" t="s">
         <v>834</v>
       </c>
       <c r="H2067">
-        <v>34011</v>
+        <v>21605</v>
       </c>
     </row>
     <row r="2068" spans="1:8" x14ac:dyDescent="0.25">
@@ -48968,16 +49018,10 @@
         <v>836</v>
       </c>
       <c r="B2068" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2068" t="s">
-        <v>834</v>
-      </c>
-      <c r="D2068" t="s">
-        <v>835</v>
+        <v>223</v>
       </c>
       <c r="H2068">
-        <v>34013</v>
+        <v>34010</v>
       </c>
     </row>
     <row r="2069" spans="1:8" x14ac:dyDescent="0.25">
@@ -48985,19 +49029,13 @@
         <v>837</v>
       </c>
       <c r="B2069" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C2069" t="s">
-        <v>834</v>
-      </c>
-      <c r="D2069" t="s">
-        <v>835</v>
-      </c>
-      <c r="E2069" t="s">
         <v>836</v>
       </c>
       <c r="H2069">
-        <v>19666</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="2070" spans="1:8" x14ac:dyDescent="0.25">
@@ -49008,13 +49046,13 @@
         <v>29</v>
       </c>
       <c r="C2070" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2070" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H2070">
-        <v>34390</v>
+        <v>34013</v>
       </c>
     </row>
     <row r="2071" spans="1:8" x14ac:dyDescent="0.25">
@@ -49022,19 +49060,19 @@
         <v>839</v>
       </c>
       <c r="B2071" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2071" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2071" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2071" t="s">
         <v>838</v>
       </c>
       <c r="H2071">
-        <v>11949</v>
+        <v>19666</v>
       </c>
     </row>
     <row r="2072" spans="1:8" x14ac:dyDescent="0.25">
@@ -49042,22 +49080,16 @@
         <v>840</v>
       </c>
       <c r="B2072" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2072" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2072" t="s">
-        <v>835</v>
-      </c>
-      <c r="E2072" t="s">
-        <v>838</v>
-      </c>
-      <c r="F2072" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H2072">
-        <v>1005</v>
+        <v>34390</v>
       </c>
     </row>
     <row r="2073" spans="1:8" x14ac:dyDescent="0.25">
@@ -49068,16 +49100,16 @@
         <v>22</v>
       </c>
       <c r="C2073" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2073" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2073" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H2073">
-        <v>13926</v>
+        <v>11949</v>
       </c>
     </row>
     <row r="2074" spans="1:8" x14ac:dyDescent="0.25">
@@ -49088,105 +49120,105 @@
         <v>9</v>
       </c>
       <c r="C2074" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2074" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2074" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2074" t="s">
         <v>841</v>
       </c>
       <c r="H2074">
-        <v>13931</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2075" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2075" t="s">
-        <v>689</v>
+        <v>843</v>
       </c>
       <c r="B2075" t="s">
         <v>22</v>
       </c>
       <c r="C2075" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2075" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2075" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H2075">
-        <v>13162</v>
+        <v>13926</v>
       </c>
     </row>
     <row r="2076" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2076" t="s">
-        <v>690</v>
+        <v>844</v>
       </c>
       <c r="B2076" t="s">
         <v>9</v>
       </c>
       <c r="C2076" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2076" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2076" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2076" t="s">
-        <v>689</v>
+        <v>843</v>
       </c>
       <c r="H2076">
-        <v>13163</v>
+        <v>13931</v>
       </c>
     </row>
     <row r="2077" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2077" t="s">
-        <v>843</v>
+        <v>689</v>
       </c>
       <c r="B2077" t="s">
         <v>22</v>
       </c>
       <c r="C2077" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2077" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2077" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="H2077">
-        <v>13927</v>
+        <v>13162</v>
       </c>
     </row>
     <row r="2078" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2078" t="s">
-        <v>844</v>
+        <v>690</v>
       </c>
       <c r="B2078" t="s">
         <v>9</v>
       </c>
       <c r="C2078" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2078" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2078" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2078" t="s">
-        <v>843</v>
+        <v>689</v>
       </c>
       <c r="H2078">
-        <v>2857</v>
+        <v>13163</v>
       </c>
     </row>
     <row r="2079" spans="1:8" x14ac:dyDescent="0.25">
@@ -49194,22 +49226,19 @@
         <v>845</v>
       </c>
       <c r="B2079" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2079" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2079" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2079" t="s">
-        <v>838</v>
-      </c>
-      <c r="F2079" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="H2079">
-        <v>2858</v>
+        <v>13927</v>
       </c>
     </row>
     <row r="2080" spans="1:8" x14ac:dyDescent="0.25">
@@ -49217,19 +49246,22 @@
         <v>846</v>
       </c>
       <c r="B2080" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C2080" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2080" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2080" t="s">
-        <v>838</v>
+        <v>840</v>
+      </c>
+      <c r="F2080" t="s">
+        <v>845</v>
       </c>
       <c r="H2080">
-        <v>15927</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="2081" spans="1:8" x14ac:dyDescent="0.25">
@@ -49237,22 +49269,22 @@
         <v>847</v>
       </c>
       <c r="B2081" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2081" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2081" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2081" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2081" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2081">
-        <v>11738</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="2082" spans="1:8" x14ac:dyDescent="0.25">
@@ -49260,25 +49292,19 @@
         <v>848</v>
       </c>
       <c r="B2082" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C2082" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2082" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2082" t="s">
-        <v>838</v>
-      </c>
-      <c r="F2082" t="s">
-        <v>846</v>
-      </c>
-      <c r="G2082" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="H2082">
-        <v>14785</v>
+        <v>15927</v>
       </c>
     </row>
     <row r="2083" spans="1:8" x14ac:dyDescent="0.25">
@@ -49286,25 +49312,22 @@
         <v>849</v>
       </c>
       <c r="B2083" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2083" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2083" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2083" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2083" t="s">
-        <v>846</v>
-      </c>
-      <c r="G2083" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H2083">
-        <v>13090</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="2084" spans="1:8" x14ac:dyDescent="0.25">
@@ -49312,22 +49335,25 @@
         <v>850</v>
       </c>
       <c r="B2084" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2084" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2084" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2084" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2084" t="s">
-        <v>846</v>
+        <v>848</v>
+      </c>
+      <c r="G2084" t="s">
+        <v>849</v>
       </c>
       <c r="H2084">
-        <v>12245</v>
+        <v>14785</v>
       </c>
     </row>
     <row r="2085" spans="1:8" x14ac:dyDescent="0.25">
@@ -49338,22 +49364,22 @@
         <v>9</v>
       </c>
       <c r="C2085" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2085" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2085" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2085" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G2085" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H2085">
-        <v>12680</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="2086" spans="1:8" x14ac:dyDescent="0.25">
@@ -49364,19 +49390,19 @@
         <v>22</v>
       </c>
       <c r="C2086" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2086" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2086" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2086" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H2086">
-        <v>12863</v>
+        <v>12245</v>
       </c>
     </row>
     <row r="2087" spans="1:8" x14ac:dyDescent="0.25">
@@ -49387,22 +49413,22 @@
         <v>9</v>
       </c>
       <c r="C2087" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2087" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2087" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2087" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G2087" t="s">
         <v>852</v>
       </c>
       <c r="H2087">
-        <v>12681</v>
+        <v>12680</v>
       </c>
     </row>
     <row r="2088" spans="1:8" x14ac:dyDescent="0.25">
@@ -49413,19 +49439,19 @@
         <v>22</v>
       </c>
       <c r="C2088" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2088" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2088" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2088" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H2088">
-        <v>16703</v>
+        <v>12863</v>
       </c>
     </row>
     <row r="2089" spans="1:8" x14ac:dyDescent="0.25">
@@ -49436,22 +49462,22 @@
         <v>9</v>
       </c>
       <c r="C2089" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2089" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2089" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2089" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="G2089" t="s">
         <v>854</v>
       </c>
       <c r="H2089">
-        <v>16712</v>
+        <v>12681</v>
       </c>
     </row>
     <row r="2090" spans="1:8" x14ac:dyDescent="0.25">
@@ -49459,22 +49485,22 @@
         <v>856</v>
       </c>
       <c r="B2090" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2090" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2090" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2090" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F2090" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="H2090">
-        <v>15361</v>
+        <v>16703</v>
       </c>
     </row>
     <row r="2091" spans="1:8" x14ac:dyDescent="0.25">
@@ -49482,19 +49508,25 @@
         <v>857</v>
       </c>
       <c r="B2091" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="C2091" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2091" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2091" t="s">
-        <v>838</v>
+        <v>840</v>
+      </c>
+      <c r="F2091" t="s">
+        <v>848</v>
+      </c>
+      <c r="G2091" t="s">
+        <v>856</v>
       </c>
       <c r="H2091">
-        <v>34391</v>
+        <v>16712</v>
       </c>
     </row>
     <row r="2092" spans="1:8" x14ac:dyDescent="0.25">
@@ -49502,16 +49534,22 @@
         <v>858</v>
       </c>
       <c r="B2092" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2092" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2092" t="s">
-        <v>835</v>
+        <v>837</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>840</v>
+      </c>
+      <c r="F2092" t="s">
+        <v>848</v>
       </c>
       <c r="H2092">
-        <v>34392</v>
+        <v>15361</v>
       </c>
     </row>
     <row r="2093" spans="1:8" x14ac:dyDescent="0.25">
@@ -49519,19 +49557,19 @@
         <v>859</v>
       </c>
       <c r="B2093" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C2093" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2093" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2093" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="H2093">
-        <v>11737</v>
+        <v>34391</v>
       </c>
     </row>
     <row r="2094" spans="1:8" x14ac:dyDescent="0.25">
@@ -49539,22 +49577,16 @@
         <v>860</v>
       </c>
       <c r="B2094" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2094" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2094" t="s">
-        <v>835</v>
-      </c>
-      <c r="E2094" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2094" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="H2094">
-        <v>13086</v>
+        <v>34392</v>
       </c>
     </row>
     <row r="2095" spans="1:8" x14ac:dyDescent="0.25">
@@ -49562,22 +49594,19 @@
         <v>861</v>
       </c>
       <c r="B2095" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2095" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2095" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2095" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2095" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H2095">
-        <v>11739</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="2096" spans="1:8" x14ac:dyDescent="0.25">
@@ -49585,22 +49614,22 @@
         <v>862</v>
       </c>
       <c r="B2096" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2096" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2096" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2096" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F2096" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="H2096">
-        <v>13367</v>
+        <v>13086</v>
       </c>
     </row>
     <row r="2097" spans="1:8" x14ac:dyDescent="0.25">
@@ -49608,19 +49637,22 @@
         <v>863</v>
       </c>
       <c r="B2097" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2097" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2097" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2097" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="F2097" t="s">
+        <v>861</v>
       </c>
       <c r="H2097">
-        <v>11749</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="2098" spans="1:8" x14ac:dyDescent="0.25">
@@ -49628,22 +49660,22 @@
         <v>864</v>
       </c>
       <c r="B2098" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2098" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2098" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2098" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F2098" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H2098">
-        <v>13346</v>
+        <v>13367</v>
       </c>
     </row>
     <row r="2099" spans="1:8" x14ac:dyDescent="0.25">
@@ -49651,22 +49683,19 @@
         <v>865</v>
       </c>
       <c r="B2099" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2099" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2099" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2099" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2099" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H2099">
-        <v>12243</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="2100" spans="1:8" x14ac:dyDescent="0.25">
@@ -49677,85 +49706,85 @@
         <v>22</v>
       </c>
       <c r="C2100" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2100" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2100" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="F2100" t="s">
+        <v>865</v>
       </c>
       <c r="H2100">
-        <v>11750</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="2101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2101" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B2101" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2101" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2101" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2101" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F2101" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2101">
-        <v>13346</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="2102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2102" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B2102" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C2102" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2102" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2102" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2102" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="H2102">
-        <v>12244</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="2103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2103" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>836</v>
+      </c>
+      <c r="D2103" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2103" t="s">
         <v>868</v>
       </c>
-      <c r="B2103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2103" t="s">
-        <v>834</v>
-      </c>
-      <c r="D2103" t="s">
-        <v>835</v>
-      </c>
-      <c r="E2103" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2103" t="s">
-        <v>866</v>
-      </c>
       <c r="H2103">
-        <v>11229</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="2104" spans="1:8" x14ac:dyDescent="0.25">
@@ -49763,19 +49792,22 @@
         <v>869</v>
       </c>
       <c r="B2104" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C2104" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2104" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2104" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="F2104" t="s">
+        <v>868</v>
       </c>
       <c r="H2104">
-        <v>34308</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="2105" spans="1:8" x14ac:dyDescent="0.25">
@@ -49786,19 +49818,19 @@
         <v>9</v>
       </c>
       <c r="C2105" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2105" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2105" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F2105" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H2105">
-        <v>34309</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="2106" spans="1:8" x14ac:dyDescent="0.25">
@@ -49806,22 +49838,19 @@
         <v>871</v>
       </c>
       <c r="B2106" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="C2106" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2106" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2106" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2106" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="H2106">
-        <v>34311</v>
+        <v>34308</v>
       </c>
     </row>
     <row r="2107" spans="1:8" x14ac:dyDescent="0.25">
@@ -49829,85 +49858,88 @@
         <v>872</v>
       </c>
       <c r="B2107" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2107" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2107" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2107" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F2107" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H2107">
-        <v>34310</v>
+        <v>34309</v>
       </c>
     </row>
     <row r="2108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2108" t="s">
-        <v>327</v>
+        <v>873</v>
       </c>
       <c r="B2108" t="s">
         <v>24</v>
       </c>
       <c r="C2108" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2108" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2108" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="F2108" t="s">
+        <v>871</v>
       </c>
       <c r="H2108">
-        <v>33177</v>
+        <v>34311</v>
       </c>
     </row>
     <row r="2109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2109" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B2109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2109" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2109" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2109" t="s">
-        <v>858</v>
+        <v>860</v>
+      </c>
+      <c r="F2109" t="s">
+        <v>871</v>
       </c>
       <c r="H2109">
-        <v>27301</v>
+        <v>34310</v>
       </c>
     </row>
     <row r="2110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2110" t="s">
-        <v>874</v>
+        <v>327</v>
       </c>
       <c r="B2110" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2110" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2110" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2110" t="s">
-        <v>858</v>
-      </c>
-      <c r="F2110" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="H2110">
-        <v>1576</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="2111" spans="1:8" x14ac:dyDescent="0.25">
@@ -49915,19 +49947,19 @@
         <v>875</v>
       </c>
       <c r="B2111" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C2111" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2111" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2111" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="H2111">
-        <v>34393</v>
+        <v>27301</v>
       </c>
     </row>
     <row r="2112" spans="1:8" x14ac:dyDescent="0.25">
@@ -49935,16 +49967,22 @@
         <v>876</v>
       </c>
       <c r="B2112" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2112" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2112" t="s">
-        <v>835</v>
+        <v>837</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>875</v>
       </c>
       <c r="H2112">
-        <v>27913</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2113" spans="1:8" x14ac:dyDescent="0.25">
@@ -49952,19 +49990,19 @@
         <v>877</v>
       </c>
       <c r="B2113" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C2113" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2113" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2113" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="H2113">
-        <v>27914</v>
+        <v>34393</v>
       </c>
     </row>
     <row r="2114" spans="1:8" x14ac:dyDescent="0.25">
@@ -49975,13 +50013,13 @@
         <v>29</v>
       </c>
       <c r="C2114" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2114" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H2114">
-        <v>34017</v>
+        <v>27913</v>
       </c>
     </row>
     <row r="2115" spans="1:8" x14ac:dyDescent="0.25">
@@ -49989,19 +50027,19 @@
         <v>879</v>
       </c>
       <c r="B2115" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2115" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D2115" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E2115" t="s">
         <v>878</v>
       </c>
       <c r="H2115">
-        <v>34089</v>
+        <v>27914</v>
       </c>
     </row>
     <row r="2116" spans="1:8" x14ac:dyDescent="0.25">
@@ -50009,10 +50047,16 @@
         <v>880</v>
       </c>
       <c r="B2116" t="s">
-        <v>223</v>
+        <v>29</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>836</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>837</v>
       </c>
       <c r="H2116">
-        <v>32554</v>
+        <v>34017</v>
       </c>
     </row>
     <row r="2117" spans="1:8" x14ac:dyDescent="0.25">
@@ -50020,13 +50064,19 @@
         <v>881</v>
       </c>
       <c r="B2117" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2117" t="s">
+        <v>836</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2117" t="s">
         <v>880</v>
       </c>
       <c r="H2117">
-        <v>32555</v>
+        <v>34089</v>
       </c>
     </row>
     <row r="2118" spans="1:8" x14ac:dyDescent="0.25">
@@ -50034,16 +50084,10 @@
         <v>882</v>
       </c>
       <c r="B2118" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2118" t="s">
-        <v>880</v>
-      </c>
-      <c r="D2118" t="s">
-        <v>881</v>
+        <v>223</v>
       </c>
       <c r="H2118">
-        <v>32556</v>
+        <v>32554</v>
       </c>
     </row>
     <row r="2119" spans="1:8" x14ac:dyDescent="0.25">
@@ -50051,19 +50095,13 @@
         <v>883</v>
       </c>
       <c r="B2119" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2119" t="s">
-        <v>880</v>
-      </c>
-      <c r="D2119" t="s">
-        <v>881</v>
-      </c>
-      <c r="E2119" t="s">
         <v>882</v>
       </c>
       <c r="H2119">
-        <v>32560</v>
+        <v>32555</v>
       </c>
     </row>
     <row r="2120" spans="1:8" x14ac:dyDescent="0.25">
@@ -50071,22 +50109,16 @@
         <v>884</v>
       </c>
       <c r="B2120" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2120" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2120" t="s">
-        <v>881</v>
-      </c>
-      <c r="E2120" t="s">
-        <v>882</v>
-      </c>
-      <c r="F2120" t="s">
         <v>883</v>
       </c>
       <c r="H2120">
-        <v>32562</v>
+        <v>32556</v>
       </c>
     </row>
     <row r="2121" spans="1:8" x14ac:dyDescent="0.25">
@@ -50094,22 +50126,19 @@
         <v>885</v>
       </c>
       <c r="B2121" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2121" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2121" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2121" t="s">
-        <v>882</v>
-      </c>
-      <c r="F2121" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H2121">
-        <v>32563</v>
+        <v>32560</v>
       </c>
     </row>
     <row r="2122" spans="1:8" x14ac:dyDescent="0.25">
@@ -50120,19 +50149,19 @@
         <v>24</v>
       </c>
       <c r="C2122" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2122" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2122" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2122" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H2122">
-        <v>32564</v>
+        <v>32562</v>
       </c>
     </row>
     <row r="2123" spans="1:8" x14ac:dyDescent="0.25">
@@ -50143,19 +50172,19 @@
         <v>24</v>
       </c>
       <c r="C2123" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2123" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2123" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2123" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="H2123">
-        <v>32561</v>
+        <v>32563</v>
       </c>
     </row>
     <row r="2124" spans="1:8" x14ac:dyDescent="0.25">
@@ -50163,19 +50192,22 @@
         <v>888</v>
       </c>
       <c r="B2124" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C2124" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2124" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2124" t="s">
-        <v>882</v>
+        <v>884</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>885</v>
       </c>
       <c r="H2124">
-        <v>32565</v>
+        <v>32564</v>
       </c>
     </row>
     <row r="2125" spans="1:8" x14ac:dyDescent="0.25">
@@ -50186,19 +50218,19 @@
         <v>24</v>
       </c>
       <c r="C2125" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2125" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2125" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2125" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H2125">
-        <v>32566</v>
+        <v>32561</v>
       </c>
     </row>
     <row r="2126" spans="1:8" x14ac:dyDescent="0.25">
@@ -50206,22 +50238,19 @@
         <v>890</v>
       </c>
       <c r="B2126" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2126" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2126" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2126" t="s">
-        <v>882</v>
-      </c>
-      <c r="F2126" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="H2126">
-        <v>32567</v>
+        <v>32565</v>
       </c>
     </row>
     <row r="2127" spans="1:8" x14ac:dyDescent="0.25">
@@ -50232,19 +50261,19 @@
         <v>24</v>
       </c>
       <c r="C2127" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2127" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2127" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2127" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H2127">
-        <v>32568</v>
+        <v>32566</v>
       </c>
     </row>
     <row r="2128" spans="1:8" x14ac:dyDescent="0.25">
@@ -50252,19 +50281,22 @@
         <v>892</v>
       </c>
       <c r="B2128" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2128" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2128" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2128" t="s">
-        <v>882</v>
+        <v>884</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>890</v>
       </c>
       <c r="H2128">
-        <v>33732</v>
+        <v>32567</v>
       </c>
     </row>
     <row r="2129" spans="1:8" x14ac:dyDescent="0.25">
@@ -50272,22 +50304,22 @@
         <v>893</v>
       </c>
       <c r="B2129" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2129" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2129" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2129" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2129" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H2129">
-        <v>33736</v>
+        <v>32568</v>
       </c>
     </row>
     <row r="2130" spans="1:8" x14ac:dyDescent="0.25">
@@ -50295,19 +50327,19 @@
         <v>894</v>
       </c>
       <c r="B2130" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C2130" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2130" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2130" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H2130">
-        <v>33455</v>
+        <v>33732</v>
       </c>
     </row>
     <row r="2131" spans="1:8" x14ac:dyDescent="0.25">
@@ -50315,22 +50347,22 @@
         <v>895</v>
       </c>
       <c r="B2131" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C2131" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2131" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2131" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2131" t="s">
         <v>894</v>
       </c>
       <c r="H2131">
-        <v>33456</v>
+        <v>33736</v>
       </c>
     </row>
     <row r="2132" spans="1:8" x14ac:dyDescent="0.25">
@@ -50338,22 +50370,19 @@
         <v>896</v>
       </c>
       <c r="B2132" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2132" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2132" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2132" t="s">
-        <v>882</v>
-      </c>
-      <c r="F2132" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="H2132">
-        <v>33457</v>
+        <v>33455</v>
       </c>
     </row>
     <row r="2133" spans="1:8" x14ac:dyDescent="0.25">
@@ -50364,19 +50393,19 @@
         <v>24</v>
       </c>
       <c r="C2133" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2133" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2133" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2133" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H2133">
-        <v>33458</v>
+        <v>33456</v>
       </c>
     </row>
     <row r="2134" spans="1:8" x14ac:dyDescent="0.25">
@@ -50387,19 +50416,19 @@
         <v>24</v>
       </c>
       <c r="C2134" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2134" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2134" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="F2134" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="H2134">
-        <v>33459</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="2135" spans="1:8" x14ac:dyDescent="0.25">
@@ -50410,16 +50439,19 @@
         <v>24</v>
       </c>
       <c r="C2135" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2135" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2135" t="s">
-        <v>882</v>
+        <v>884</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>896</v>
       </c>
       <c r="H2135">
-        <v>27598</v>
+        <v>33458</v>
       </c>
     </row>
     <row r="2136" spans="1:8" x14ac:dyDescent="0.25">
@@ -50430,84 +50462,96 @@
         <v>24</v>
       </c>
       <c r="C2136" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2136" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2136" t="s">
-        <v>882</v>
+        <v>884</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>896</v>
       </c>
       <c r="H2136">
-        <v>27599</v>
+        <v>33459</v>
       </c>
     </row>
     <row r="2137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2137" t="s">
-        <v>89</v>
+        <v>901</v>
       </c>
       <c r="B2137" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2137" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2137" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2137" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H2137">
-        <v>27323</v>
+        <v>27598</v>
       </c>
     </row>
     <row r="2138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2138" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B2138" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2138" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2138" t="s">
-        <v>881</v>
+        <v>883</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>884</v>
       </c>
       <c r="H2138">
-        <v>32557</v>
+        <v>27599</v>
       </c>
     </row>
     <row r="2139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2139" t="s">
-        <v>902</v>
+        <v>89</v>
       </c>
       <c r="B2139" t="s">
         <v>9</v>
       </c>
       <c r="C2139" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="D2139" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E2139" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="H2139">
-        <v>32558</v>
+        <v>27323</v>
       </c>
     </row>
     <row r="2140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2140" t="s">
+        <v>903</v>
+      </c>
       <c r="B2140" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2140" t="s">
-        <v>903</v>
+        <v>882</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>883</v>
       </c>
       <c r="H2140">
-        <v>33991</v>
+        <v>32557</v>
       </c>
     </row>
     <row r="2141" spans="1:8" x14ac:dyDescent="0.25">
@@ -50515,30 +50559,30 @@
         <v>904</v>
       </c>
       <c r="B2141" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2141" t="s">
+        <v>882</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>883</v>
+      </c>
+      <c r="E2141" t="s">
         <v>903</v>
       </c>
       <c r="H2141">
-        <v>18148</v>
+        <v>32558</v>
       </c>
     </row>
     <row r="2142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2142" t="s">
+      <c r="B2142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2142" t="s">
         <v>905</v>
       </c>
-      <c r="B2142" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2142" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2142" t="s">
-        <v>904</v>
-      </c>
       <c r="H2142">
-        <v>25295</v>
+        <v>33991</v>
       </c>
     </row>
     <row r="2143" spans="1:8" x14ac:dyDescent="0.25">
@@ -50546,64 +50590,61 @@
         <v>906</v>
       </c>
       <c r="B2143" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2143" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2143" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H2143">
-        <v>34474</v>
+        <v>18148</v>
       </c>
     </row>
     <row r="2144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2144" t="s">
+        <v>907</v>
+      </c>
       <c r="B2144" t="s">
         <v>29</v>
       </c>
       <c r="C2144" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2144" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2144">
-        <v>33917</v>
+        <v>25295</v>
       </c>
     </row>
     <row r="2145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2145" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B2145" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2145" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2145" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2145">
-        <v>33912</v>
+        <v>34474</v>
       </c>
     </row>
     <row r="2146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2146" t="s">
-        <v>908</v>
-      </c>
       <c r="B2146" t="s">
         <v>29</v>
       </c>
       <c r="C2146" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2146" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2146">
-        <v>20423</v>
+        <v>33917</v>
       </c>
     </row>
     <row r="2147" spans="1:8" x14ac:dyDescent="0.25">
@@ -50611,16 +50652,16 @@
         <v>909</v>
       </c>
       <c r="B2147" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2147" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2147" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2147">
-        <v>20424</v>
+        <v>33912</v>
       </c>
     </row>
     <row r="2148" spans="1:8" x14ac:dyDescent="0.25">
@@ -50631,13 +50672,13 @@
         <v>29</v>
       </c>
       <c r="C2148" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2148" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2148">
-        <v>20425</v>
+        <v>20423</v>
       </c>
     </row>
     <row r="2149" spans="1:8" x14ac:dyDescent="0.25">
@@ -50648,13 +50689,13 @@
         <v>29</v>
       </c>
       <c r="C2149" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2149" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2149">
-        <v>20426</v>
+        <v>20424</v>
       </c>
     </row>
     <row r="2150" spans="1:8" x14ac:dyDescent="0.25">
@@ -50665,13 +50706,13 @@
         <v>29</v>
       </c>
       <c r="C2150" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2150" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2150">
-        <v>20440</v>
+        <v>20425</v>
       </c>
     </row>
     <row r="2151" spans="1:8" x14ac:dyDescent="0.25">
@@ -50682,13 +50723,13 @@
         <v>29</v>
       </c>
       <c r="C2151" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2151" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2151">
-        <v>20441</v>
+        <v>20426</v>
       </c>
     </row>
     <row r="2152" spans="1:8" x14ac:dyDescent="0.25">
@@ -50699,13 +50740,13 @@
         <v>29</v>
       </c>
       <c r="C2152" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2152" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2152">
-        <v>32646</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="2153" spans="1:8" x14ac:dyDescent="0.25">
@@ -50716,13 +50757,13 @@
         <v>29</v>
       </c>
       <c r="C2153" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2153" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2153">
-        <v>20442</v>
+        <v>20441</v>
       </c>
     </row>
     <row r="2154" spans="1:8" x14ac:dyDescent="0.25">
@@ -50733,13 +50774,13 @@
         <v>29</v>
       </c>
       <c r="C2154" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2154" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2154">
-        <v>20443</v>
+        <v>32646</v>
       </c>
     </row>
     <row r="2155" spans="1:8" x14ac:dyDescent="0.25">
@@ -50750,13 +50791,13 @@
         <v>29</v>
       </c>
       <c r="C2155" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2155" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2155">
-        <v>20444</v>
+        <v>20442</v>
       </c>
     </row>
     <row r="2156" spans="1:8" x14ac:dyDescent="0.25">
@@ -50767,13 +50808,13 @@
         <v>29</v>
       </c>
       <c r="C2156" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2156" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2156">
-        <v>20445</v>
+        <v>20443</v>
       </c>
     </row>
     <row r="2157" spans="1:8" x14ac:dyDescent="0.25">
@@ -50784,108 +50825,111 @@
         <v>29</v>
       </c>
       <c r="C2157" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2157" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H2157">
+        <v>20444</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2158" t="s">
+        <v>920</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>905</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>906</v>
+      </c>
+      <c r="H2158">
+        <v>20445</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2159" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>905</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>906</v>
+      </c>
+      <c r="H2159">
         <v>18792</v>
       </c>
     </row>
-    <row r="2158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2158" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2158" t="s">
-        <v>903</v>
-      </c>
-      <c r="H2158">
+    <row r="2160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>905</v>
+      </c>
+      <c r="H2160">
         <v>33940</v>
       </c>
     </row>
-    <row r="2159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2159" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2159" t="s">
-        <v>903</v>
-      </c>
-      <c r="H2159">
+    <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>905</v>
+      </c>
+      <c r="H2161">
         <v>33939</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2160" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2160" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2160" t="s">
-        <v>903</v>
-      </c>
-      <c r="H2160">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2161" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2161" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2161" t="s">
-        <v>903</v>
-      </c>
-      <c r="H2161">
-        <v>748</v>
       </c>
     </row>
     <row r="2162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2162" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="B2162" t="s">
         <v>9</v>
       </c>
       <c r="C2162" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H2162">
-        <v>3167</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2163" t="s">
-        <v>920</v>
+        <v>204</v>
       </c>
       <c r="B2163" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2163" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H2163">
-        <v>18244</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2164" t="s">
-        <v>921</v>
+        <v>191</v>
       </c>
       <c r="B2164" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2164" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2164" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="H2164">
-        <v>19139</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="2165" spans="1:8" x14ac:dyDescent="0.25">
@@ -50893,16 +50937,13 @@
         <v>922</v>
       </c>
       <c r="B2165" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2165" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2165" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="H2165">
-        <v>19140</v>
+        <v>18244</v>
       </c>
     </row>
     <row r="2166" spans="1:8" x14ac:dyDescent="0.25">
@@ -50910,13 +50951,16 @@
         <v>923</v>
       </c>
       <c r="B2166" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2166" t="s">
-        <v>903</v>
+        <v>905</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>922</v>
       </c>
       <c r="H2166">
-        <v>106</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="2167" spans="1:8" x14ac:dyDescent="0.25">
@@ -50924,10 +50968,16 @@
         <v>924</v>
       </c>
       <c r="B2167" t="s">
-        <v>357</v>
+        <v>29</v>
       </c>
       <c r="C2167" t="s">
-        <v>903</v>
+        <v>905</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>922</v>
+      </c>
+      <c r="H2167">
+        <v>19140</v>
       </c>
     </row>
     <row r="2168" spans="1:8" x14ac:dyDescent="0.25">
@@ -50935,13 +50985,13 @@
         <v>925</v>
       </c>
       <c r="B2168" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C2168" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="H2168">
-        <v>20802</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2169" spans="1:8" x14ac:dyDescent="0.25">
@@ -50949,16 +50999,10 @@
         <v>926</v>
       </c>
       <c r="B2169" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="C2169" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2169" t="s">
-        <v>925</v>
-      </c>
-      <c r="H2169">
-        <v>24423</v>
+        <v>905</v>
       </c>
     </row>
     <row r="2170" spans="1:8" x14ac:dyDescent="0.25">
@@ -50966,16 +51010,13 @@
         <v>927</v>
       </c>
       <c r="B2170" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2170" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2170" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="H2170">
-        <v>33755</v>
+        <v>20802</v>
       </c>
     </row>
     <row r="2171" spans="1:8" x14ac:dyDescent="0.25">
@@ -50983,19 +51024,16 @@
         <v>928</v>
       </c>
       <c r="B2171" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2171" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2171" t="s">
-        <v>925</v>
-      </c>
-      <c r="E2171" t="s">
         <v>927</v>
       </c>
       <c r="H2171">
-        <v>33756</v>
+        <v>24423</v>
       </c>
     </row>
     <row r="2172" spans="1:8" x14ac:dyDescent="0.25">
@@ -51006,13 +51044,13 @@
         <v>29</v>
       </c>
       <c r="C2172" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2172" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2172">
-        <v>24850</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="2173" spans="1:8" x14ac:dyDescent="0.25">
@@ -51020,16 +51058,19 @@
         <v>930</v>
       </c>
       <c r="B2173" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2173" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2173" t="s">
-        <v>925</v>
+        <v>927</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>929</v>
       </c>
       <c r="H2173">
-        <v>25368</v>
+        <v>33756</v>
       </c>
     </row>
     <row r="2174" spans="1:8" x14ac:dyDescent="0.25">
@@ -51040,13 +51081,13 @@
         <v>29</v>
       </c>
       <c r="C2174" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2174" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2174">
-        <v>24207</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="2175" spans="1:8" x14ac:dyDescent="0.25">
@@ -51057,13 +51098,13 @@
         <v>29</v>
       </c>
       <c r="C2175" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2175" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2175">
-        <v>24952</v>
+        <v>25368</v>
       </c>
     </row>
     <row r="2176" spans="1:8" x14ac:dyDescent="0.25">
@@ -51074,64 +51115,64 @@
         <v>29</v>
       </c>
       <c r="C2176" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2176" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2176">
-        <v>24424</v>
+        <v>24207</v>
       </c>
     </row>
     <row r="2177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2177" t="s">
+        <v>934</v>
+      </c>
       <c r="B2177" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2177" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2177" t="s">
-        <v>925</v>
-      </c>
-      <c r="E2177" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="H2177">
-        <v>24421</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="2178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2178" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B2178" t="s">
         <v>29</v>
       </c>
       <c r="C2178" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2178" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2178">
-        <v>22547</v>
+        <v>24424</v>
       </c>
     </row>
     <row r="2179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2179" t="s">
+      <c r="B2179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>905</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>927</v>
+      </c>
+      <c r="E2179" t="s">
         <v>935</v>
       </c>
-      <c r="B2179" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2179" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2179" t="s">
-        <v>925</v>
-      </c>
       <c r="H2179">
-        <v>20511</v>
+        <v>24421</v>
       </c>
     </row>
     <row r="2180" spans="1:8" x14ac:dyDescent="0.25">
@@ -51142,13 +51183,13 @@
         <v>29</v>
       </c>
       <c r="C2180" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2180" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2180">
-        <v>34138</v>
+        <v>22547</v>
       </c>
     </row>
     <row r="2181" spans="1:8" x14ac:dyDescent="0.25">
@@ -51156,19 +51197,16 @@
         <v>937</v>
       </c>
       <c r="B2181" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2181" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2181" t="s">
-        <v>925</v>
-      </c>
-      <c r="E2181" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="H2181">
-        <v>34139</v>
+        <v>20511</v>
       </c>
     </row>
     <row r="2182" spans="1:8" x14ac:dyDescent="0.25">
@@ -51179,13 +51217,13 @@
         <v>29</v>
       </c>
       <c r="C2182" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2182" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="H2182">
-        <v>27331</v>
+        <v>34138</v>
       </c>
     </row>
     <row r="2183" spans="1:8" x14ac:dyDescent="0.25">
@@ -51196,16 +51234,16 @@
         <v>9</v>
       </c>
       <c r="C2183" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2183" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E2183" t="s">
         <v>938</v>
       </c>
       <c r="H2183">
-        <v>27363</v>
+        <v>34139</v>
       </c>
     </row>
     <row r="2184" spans="1:8" x14ac:dyDescent="0.25">
@@ -51213,19 +51251,16 @@
         <v>940</v>
       </c>
       <c r="B2184" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2184" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2184" t="s">
-        <v>925</v>
-      </c>
-      <c r="E2184" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="H2184">
-        <v>27364</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="2185" spans="1:8" x14ac:dyDescent="0.25">
@@ -51236,16 +51271,16 @@
         <v>9</v>
       </c>
       <c r="C2185" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2185" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E2185" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H2185">
-        <v>27365</v>
+        <v>27363</v>
       </c>
     </row>
     <row r="2186" spans="1:8" x14ac:dyDescent="0.25">
@@ -51256,16 +51291,16 @@
         <v>9</v>
       </c>
       <c r="C2186" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2186" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E2186" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H2186">
-        <v>27366</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="2187" spans="1:8" x14ac:dyDescent="0.25">
@@ -51273,16 +51308,19 @@
         <v>943</v>
       </c>
       <c r="B2187" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2187" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2187" t="s">
-        <v>925</v>
+        <v>927</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>940</v>
       </c>
       <c r="H2187">
-        <v>18158</v>
+        <v>27365</v>
       </c>
     </row>
     <row r="2188" spans="1:8" x14ac:dyDescent="0.25">
@@ -51290,16 +51328,19 @@
         <v>944</v>
       </c>
       <c r="B2188" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2188" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2188" t="s">
-        <v>925</v>
+        <v>927</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>940</v>
       </c>
       <c r="H2188">
-        <v>26945</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="2189" spans="1:8" x14ac:dyDescent="0.25">
@@ -51307,13 +51348,16 @@
         <v>945</v>
       </c>
       <c r="B2189" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2189" t="s">
-        <v>903</v>
+        <v>905</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>927</v>
       </c>
       <c r="H2189">
-        <v>27265</v>
+        <v>18158</v>
       </c>
     </row>
     <row r="2190" spans="1:8" x14ac:dyDescent="0.25">
@@ -51324,13 +51368,13 @@
         <v>29</v>
       </c>
       <c r="C2190" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2190" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="H2190">
-        <v>27266</v>
+        <v>26945</v>
       </c>
     </row>
     <row r="2191" spans="1:8" x14ac:dyDescent="0.25">
@@ -51338,16 +51382,13 @@
         <v>947</v>
       </c>
       <c r="B2191" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2191" t="s">
-        <v>903</v>
-      </c>
-      <c r="D2191" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="H2191">
-        <v>27267</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="2192" spans="1:8" x14ac:dyDescent="0.25">
@@ -51358,13 +51399,13 @@
         <v>29</v>
       </c>
       <c r="C2192" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2192" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2192">
-        <v>27545</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="2193" spans="1:8" x14ac:dyDescent="0.25">
@@ -51375,47 +51416,47 @@
         <v>29</v>
       </c>
       <c r="C2193" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2193" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2193">
-        <v>33737</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="2194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2194" t="s">
+        <v>950</v>
+      </c>
       <c r="B2194" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2194" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2194" t="s">
-        <v>945</v>
-      </c>
-      <c r="E2194" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H2194">
-        <v>33739</v>
+        <v>27545</v>
       </c>
     </row>
     <row r="2195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2195" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B2195" t="s">
         <v>29</v>
       </c>
       <c r="C2195" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2195" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2195">
-        <v>33738</v>
+        <v>33737</v>
       </c>
     </row>
     <row r="2196" spans="1:8" x14ac:dyDescent="0.25">
@@ -51423,154 +51464,202 @@
         <v>9</v>
       </c>
       <c r="C2196" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2196" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E2196" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H2196">
-        <v>33740</v>
+        <v>33739</v>
       </c>
     </row>
     <row r="2197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2197" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B2197" t="s">
         <v>29</v>
       </c>
       <c r="C2197" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2197" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2197">
-        <v>27005</v>
+        <v>33738</v>
       </c>
     </row>
     <row r="2198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2198" t="s">
-        <v>211</v>
-      </c>
       <c r="B2198" t="s">
         <v>9</v>
       </c>
       <c r="C2198" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2198" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E2198" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H2198">
-        <v>27007</v>
+        <v>33740</v>
       </c>
     </row>
     <row r="2199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2199" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B2199" t="s">
         <v>29</v>
       </c>
       <c r="C2199" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2199" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H2199">
-        <v>27021</v>
+        <v>27005</v>
       </c>
     </row>
     <row r="2200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2200" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2200" t="s">
         <v>9</v>
       </c>
       <c r="C2200" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="D2200" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E2200" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H2200">
-        <v>27006</v>
+        <v>27007</v>
       </c>
     </row>
     <row r="2201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2201" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B2201" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2201" t="s">
-        <v>903</v>
+        <v>905</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>947</v>
       </c>
       <c r="H2201">
-        <v>27058</v>
+        <v>27021</v>
       </c>
     </row>
     <row r="2202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2202" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B2202" t="s">
         <v>9</v>
       </c>
       <c r="C2202" t="s">
-        <v>903</v>
+        <v>905</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>947</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>954</v>
       </c>
       <c r="H2202">
-        <v>11323</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="2203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2203" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B2203" t="s">
-        <v>955</v>
+        <v>9</v>
       </c>
       <c r="C2203" t="s">
-        <v>956</v>
-      </c>
-      <c r="D2203" t="s">
-        <v>956</v>
+        <v>905</v>
       </c>
       <c r="H2203">
-        <v>19718</v>
+        <v>27058</v>
       </c>
     </row>
     <row r="2204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2204" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>905</v>
+      </c>
+      <c r="H2204">
+        <v>27302</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>905</v>
+      </c>
+      <c r="H2205">
+        <v>11323</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2206" t="s">
+        <v>957</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>958</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>959</v>
+      </c>
+      <c r="H2206">
+        <v>19718</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2207" t="s">
         <v>34</v>
       </c>
-      <c r="B2204" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2204" t="s">
-        <v>956</v>
-      </c>
-      <c r="D2204" t="s">
-        <v>956</v>
-      </c>
-      <c r="E2204" t="s">
-        <v>954</v>
-      </c>
-      <c r="H2204">
+      <c r="B2207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>959</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>957</v>
+      </c>
+      <c r="H2207">
         <v>13158</v>
       </c>
     </row>

--- a/Microsoft 365/Current Channel/outlookreportitemcontrols.xlsx
+++ b/Microsoft 365/Current Channel/outlookreportitemcontrols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCNov2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TcidDocs\CCJan2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F80F6530-5770-4BB4-A30D-31A8650644EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DB1CBA-DE5B-475F-B931-0083550D244F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5415" windowWidth="51600" windowHeight="15465"/>
+    <workbookView xWindow="2850" yWindow="4260" windowWidth="25470" windowHeight="15465"/>
   </bookViews>
   <sheets>
     <sheet name="outlookreportitemcontrols" sheetId="1" r:id="rId1"/>
